--- a/website/static/downloadable_files/PartnerLedger.xlsx
+++ b/website/static/downloadable_files/PartnerLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"> SPD-23-24-002</t>
   </si>
@@ -46,10 +46,7 @@
     <t>မှတ်ချက်</t>
   </si>
   <si>
-    <t>2023-09-27</t>
-  </si>
-  <si>
-    <t>ရုံးလက်ကျန်ငွေ</t>
+    <t>Opening လက်ကျန်ငွေ</t>
   </si>
   <si>
     <t>Fuel</t>
@@ -61,22 +58,19 @@
     <t>testing hello</t>
   </si>
   <si>
-    <t>2023-09-28</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
     <t>testing</t>
   </si>
   <si>
-    <t>2023-09-29</t>
-  </si>
-  <si>
     <t>Change Tyres</t>
   </si>
   <si>
     <t>ထမင်းစားစရိတ်</t>
+  </si>
+  <si>
+    <t>စုစုပေါင်း</t>
   </si>
 </sst>
 </file>
@@ -419,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -482,159 +476,109 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>10</v>
+      <c r="A5">
+        <v>45196</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="1"/>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
       <c r="F5">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>10</v>
+      <c r="A6">
+        <v>45196</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>-7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>45197</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>1440</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
+      <c r="F7">
+        <v>1433</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>45198</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>2000</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>-7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
       <c r="F8">
-        <v>-7</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>15</v>
+      <c r="A9">
+        <v>45198</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>24000</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>-7</v>
+        <v>27433</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>1440</v>
+        <v>27445</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>1433</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="D11">
-        <v>1440</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>2000</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>3433</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14">
-        <v>24000</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>27433</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="D15">
-        <v>26000</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
         <v>27433</v>
       </c>
     </row>
